--- a/activity_log.xlsx
+++ b/activity_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,9 +907,165 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45757.51818012875</v>
-      </c>
-      <c r="F18" t="inlineStr">
+        <v>45757.51818012731</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LOG18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>User logged in successfully</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45757.51980059028</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LOG19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>User Update</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Updated user admin</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45757.52004565972</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LOG20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Password Reset</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Admin reset password for admin</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45757.520126875</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LOG21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>User Update</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Updated user admin</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45757.52012711806</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LOG22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>User Update</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Updated user sanaa sabri</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45757.52061881944</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LOG23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>User Update</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Updated user sanaa sabri</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45757.52098737243</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/activity_log.xlsx
+++ b/activity_log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1063,9 +1063,35 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45757.52098737243</v>
-      </c>
-      <c r="F24" t="inlineStr">
+        <v>45757.52098737269</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LOG24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Logout</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>User logged out</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45757.53605617882</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
